--- a/test/xl_transform/writer_test/test_data/ExcelDataFrameWriter/excel/WriteWithLimitedRow/Result.xlsx
+++ b/test/xl_transform/writer_test/test_data/ExcelDataFrameWriter/excel/WriteWithLimitedRow/Result.xlsx
@@ -387,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E13"/>
+  <dimension ref="C3:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:E13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -461,37 +461,6 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C9" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
